--- a/Bitcoin Lightning Bank Yield Estimate Calculator V3.xlsx
+++ b/Bitcoin Lightning Bank Yield Estimate Calculator V3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/20eb409204932c1c/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/20eb409204932c1c/Lightning Bank Case Study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2761" documentId="13_ncr:1_{AE93A452-22DF-478B-8AAE-1A3A6016AB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EE047EE-9208-46BC-BF94-17C380CEB054}"/>
+  <xr:revisionPtr revIDLastSave="3006" documentId="13_ncr:1_{AE93A452-22DF-478B-8AAE-1A3A6016AB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1BE751B-95C0-4DCB-99D2-32863017CE99}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{10396A79-A4B2-467C-A467-ECE59C587EB2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="57">
   <si>
     <t>Bitcoin Compound Annual Growth Rate</t>
   </si>
@@ -148,15 +148,6 @@
   </si>
   <si>
     <t>Annual $1M USD Yield</t>
-  </si>
-  <si>
-    <t>Annual Compounded USD Yield %</t>
-  </si>
-  <si>
-    <t>Average Annual Compounded USD Yield %</t>
-  </si>
-  <si>
-    <t>Annual Compounded $1M USD Yield</t>
   </si>
   <si>
     <t>Annual 20K BTC TVL Yield</t>
@@ -203,6 +194,21 @@
   </si>
   <si>
     <t>Yield Estimate 10 Year Burndown</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Compounded Cumulative $1M USD Yield</t>
+  </si>
+  <si>
+    <t>Compounded Annual $1M USD Yield</t>
+  </si>
+  <si>
+    <t>Compounded Average Annual USD Yield %</t>
+  </si>
+  <si>
+    <t>Compounded Annual USD Yield %</t>
   </si>
 </sst>
 </file>
@@ -500,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -718,6 +724,33 @@
     <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="10" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -727,32 +760,8 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1128,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F19C89-1353-4987-8F23-FE7154F69287}">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:P58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1142,7 +1151,8 @@
     <col min="13" max="13" width="1.6640625" style="7" customWidth="1"/>
     <col min="14" max="14" width="14.46484375" style="7" customWidth="1"/>
     <col min="15" max="15" width="1.53125" style="7" customWidth="1"/>
-    <col min="16" max="16384" width="9.06640625" style="7"/>
+    <col min="16" max="16" width="14.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.06640625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1163,20 +1173,20 @@
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="20"/>
       <c r="B2" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="44"/>
-      <c r="E2" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
+      <c r="E2" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
       <c r="M2" s="21"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1188,14 +1198,14 @@
         <v>100000</v>
       </c>
       <c r="D3" s="44"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
       <c r="M3" s="21"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1204,17 +1214,17 @@
         <v>0</v>
       </c>
       <c r="C4" s="25">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D4" s="44"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
       <c r="M4" s="21"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1223,17 +1233,17 @@
         <v>8</v>
       </c>
       <c r="C5" s="39">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D5" s="45"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
       <c r="M5" s="21"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1244,7 +1254,7 @@
       <c r="C6" s="39">
         <v>0.4</v>
       </c>
-      <c r="D6" s="84"/>
+      <c r="D6" s="81"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1261,11 +1271,11 @@
         <v>10</v>
       </c>
       <c r="C7" s="39">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D7" s="46"/>
       <c r="E7" s="65" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F7" s="68"/>
       <c r="G7" s="68"/>
@@ -1273,7 +1283,7 @@
       <c r="I7" s="68"/>
       <c r="J7" s="68"/>
       <c r="K7" s="69" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L7" s="70">
         <f>(J8/F8)^(1/DATEDIF(H8,L8,"Y"))-1</f>
@@ -1292,25 +1302,25 @@
       </c>
       <c r="D8" s="40"/>
       <c r="E8" s="69" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F8" s="71">
         <v>314.25</v>
       </c>
       <c r="G8" s="69" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H8" s="72">
         <v>42005</v>
       </c>
       <c r="I8" s="69" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J8" s="71">
         <v>94443.520000000004</v>
       </c>
       <c r="K8" s="69" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L8" s="72">
         <v>45658</v>
@@ -1334,1470 +1344,1556 @@
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="21"/>
-      <c r="B10" s="5" t="s">
-        <v>49</v>
+      <c r="B10" s="85" t="s">
+        <v>46</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="M10" s="21"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="21"/>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="85"/>
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2</v>
+      </c>
+      <c r="E11" s="8">
+        <v>3</v>
+      </c>
+      <c r="F11" s="8">
         <v>4</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="G11" s="8">
         <v>5</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="6"/>
+      <c r="H11" s="8">
+        <v>6</v>
+      </c>
+      <c r="I11" s="8">
+        <v>7</v>
+      </c>
+      <c r="J11" s="8">
+        <v>8</v>
+      </c>
+      <c r="K11" s="8">
+        <v>9</v>
+      </c>
+      <c r="L11" s="8">
+        <v>10</v>
+      </c>
+      <c r="M11" s="21"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="21"/>
       <c r="B12" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
       <c r="M12" s="55"/>
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="21"/>
       <c r="B13" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="12">
-        <f>($C$3 * $C$4) + $C$3</f>
-        <v>130000</v>
-      </c>
-      <c r="D13" s="2">
-        <f>(C13 * $C$4) + C13</f>
-        <v>169000</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" ref="E13:L13" si="0">(D13 * $C$4) + D13</f>
-        <v>219700</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>285610</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="0"/>
-        <v>371293</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="0"/>
-        <v>482680.9</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" si="0"/>
-        <v>627485.17000000004</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="0"/>
-        <v>815730.72100000002</v>
-      </c>
-      <c r="K13" s="2">
-        <f t="shared" si="0"/>
-        <v>1060449.9373000001</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" si="0"/>
-        <v>1378584.9184900001</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
       <c r="M13" s="55"/>
+      <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="21"/>
       <c r="B14" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="33">
-        <f>C13*21000000</f>
-        <v>2730000000000</v>
-      </c>
-      <c r="D14" s="34">
-        <f t="shared" ref="D14:L14" si="1">D13*21000000</f>
-        <v>3549000000000</v>
-      </c>
-      <c r="E14" s="34">
-        <f t="shared" si="1"/>
-        <v>4613700000000</v>
-      </c>
-      <c r="F14" s="34">
-        <f t="shared" si="1"/>
-        <v>5997810000000</v>
-      </c>
-      <c r="G14" s="34">
-        <f t="shared" si="1"/>
-        <v>7797153000000</v>
-      </c>
-      <c r="H14" s="34">
-        <f t="shared" si="1"/>
-        <v>10136298900000</v>
-      </c>
-      <c r="I14" s="34">
-        <f t="shared" si="1"/>
-        <v>13177188570000</v>
-      </c>
-      <c r="J14" s="34">
-        <f t="shared" si="1"/>
-        <v>17130345141000</v>
-      </c>
-      <c r="K14" s="34">
-        <f t="shared" si="1"/>
-        <v>22269448683300.004</v>
-      </c>
-      <c r="L14" s="34">
-        <f t="shared" si="1"/>
-        <v>28950283288290</v>
+        <v>1</v>
+      </c>
+      <c r="C14" s="12">
+        <f>($C$3 * $C$4) + $C$3</f>
+        <v>140000</v>
+      </c>
+      <c r="D14" s="2">
+        <f>(C14 * $C$4) + C14</f>
+        <v>196000</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" ref="E14:L14" si="0">(D14 * $C$4) + D14</f>
+        <v>274400</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>384160</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>537824</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="0"/>
+        <v>752953.6</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="0"/>
+        <v>1054135.04</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="0"/>
+        <v>1475789.0560000001</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="0"/>
+        <v>2066104.6784000001</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="0"/>
+        <v>2892546.5497600003</v>
       </c>
       <c r="M14" s="55"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="21"/>
       <c r="B15" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="66">
-        <f>( ( C13 - $C$3 ) ) / C13</f>
-        <v>0.23076923076923078</v>
-      </c>
-      <c r="D15" s="66">
-        <f>( ( D13 - $C$3 ) ) / D13</f>
-        <v>0.40828402366863903</v>
-      </c>
-      <c r="E15" s="66">
-        <f t="shared" ref="E15:L15" si="2">( ( E13 - $C$3 ) ) / E13</f>
-        <v>0.54483386436049153</v>
-      </c>
-      <c r="F15" s="66">
-        <f t="shared" si="2"/>
-        <v>0.64987220335422424</v>
-      </c>
-      <c r="G15" s="66">
-        <f t="shared" si="2"/>
-        <v>0.73067092565709557</v>
-      </c>
-      <c r="H15" s="66">
-        <f t="shared" si="2"/>
-        <v>0.79282378896699668</v>
-      </c>
-      <c r="I15" s="66">
-        <f t="shared" si="2"/>
-        <v>0.84063368382076664</v>
-      </c>
-      <c r="J15" s="66">
-        <f t="shared" si="2"/>
-        <v>0.87741052601597436</v>
-      </c>
-      <c r="K15" s="66">
-        <f t="shared" si="2"/>
-        <v>0.90570040462767254</v>
-      </c>
-      <c r="L15" s="66">
-        <f t="shared" si="2"/>
-        <v>0.92746184971359424</v>
-      </c>
-      <c r="M15" s="61"/>
+        <v>2</v>
+      </c>
+      <c r="C15" s="33">
+        <f>C14*21000000</f>
+        <v>2940000000000</v>
+      </c>
+      <c r="D15" s="34">
+        <f t="shared" ref="D15:L15" si="1">D14*21000000</f>
+        <v>4116000000000</v>
+      </c>
+      <c r="E15" s="34">
+        <f t="shared" si="1"/>
+        <v>5762400000000</v>
+      </c>
+      <c r="F15" s="34">
+        <f t="shared" si="1"/>
+        <v>8067360000000</v>
+      </c>
+      <c r="G15" s="34">
+        <f t="shared" si="1"/>
+        <v>11294304000000</v>
+      </c>
+      <c r="H15" s="34">
+        <f t="shared" si="1"/>
+        <v>15812025600000</v>
+      </c>
+      <c r="I15" s="34">
+        <f t="shared" si="1"/>
+        <v>22136835840000</v>
+      </c>
+      <c r="J15" s="34">
+        <f t="shared" si="1"/>
+        <v>30991570176000.004</v>
+      </c>
+      <c r="K15" s="34">
+        <f t="shared" si="1"/>
+        <v>43388198246400</v>
+      </c>
+      <c r="L15" s="34">
+        <f t="shared" si="1"/>
+        <v>60743477544960.008</v>
+      </c>
+      <c r="M15" s="55"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="21"/>
       <c r="B16" s="52" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" s="66">
-        <f>1-C15</f>
-        <v>0.76923076923076916</v>
+        <f>( ( C14 - $C$3 ) ) / C14</f>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D16" s="66">
-        <f t="shared" ref="D16:L16" si="3">1-D15</f>
-        <v>0.59171597633136097</v>
+        <f>( ( D14 - $C$3 ) ) / D14</f>
+        <v>0.48979591836734693</v>
       </c>
       <c r="E16" s="66">
-        <f t="shared" si="3"/>
-        <v>0.45516613563950847</v>
+        <f t="shared" ref="E16:L16" si="2">( ( E14 - $C$3 ) ) / E14</f>
+        <v>0.63556851311953355</v>
       </c>
       <c r="F16" s="66">
-        <f t="shared" si="3"/>
-        <v>0.35012779664577576</v>
+        <f t="shared" si="2"/>
+        <v>0.73969179508538108</v>
       </c>
       <c r="G16" s="66">
-        <f t="shared" si="3"/>
-        <v>0.26932907434290443</v>
+        <f t="shared" si="2"/>
+        <v>0.81406556791812934</v>
       </c>
       <c r="H16" s="66">
-        <f t="shared" si="3"/>
-        <v>0.20717621103300332</v>
+        <f t="shared" si="2"/>
+        <v>0.86718969137009239</v>
       </c>
       <c r="I16" s="66">
-        <f t="shared" si="3"/>
-        <v>0.15936631617923336</v>
+        <f t="shared" si="2"/>
+        <v>0.90513549383578029</v>
       </c>
       <c r="J16" s="66">
-        <f t="shared" si="3"/>
-        <v>0.12258947398402564</v>
+        <f t="shared" si="2"/>
+        <v>0.93223963845412883</v>
       </c>
       <c r="K16" s="66">
-        <f t="shared" si="3"/>
-        <v>9.429959537232746E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.95159974175294915</v>
       </c>
       <c r="L16" s="66">
-        <f t="shared" si="3"/>
-        <v>7.2538150286405756E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.96542838696639222</v>
       </c>
       <c r="M16" s="61"/>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="21"/>
       <c r="B17" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="60">
-        <f>C15</f>
-        <v>0.23076923076923078</v>
-      </c>
-      <c r="D17" s="63">
-        <f>D15-C15</f>
-        <v>0.17751479289940825</v>
-      </c>
-      <c r="E17" s="63">
-        <f>E15-D15</f>
-        <v>0.1365498406918525</v>
-      </c>
-      <c r="F17" s="63">
-        <f t="shared" ref="F17:L17" si="4">F15-E15</f>
-        <v>0.10503833899373272</v>
-      </c>
-      <c r="G17" s="63">
-        <f t="shared" si="4"/>
-        <v>8.0798722302871329E-2</v>
-      </c>
-      <c r="H17" s="63">
-        <f t="shared" si="4"/>
-        <v>6.2152863309901107E-2</v>
-      </c>
-      <c r="I17" s="63">
-        <f t="shared" si="4"/>
-        <v>4.7809894853769963E-2</v>
-      </c>
-      <c r="J17" s="63">
-        <f t="shared" si="4"/>
-        <v>3.6776842195207715E-2</v>
-      </c>
-      <c r="K17" s="63">
-        <f t="shared" si="4"/>
-        <v>2.8289878611698183E-2</v>
-      </c>
-      <c r="L17" s="63">
-        <f t="shared" si="4"/>
-        <v>2.1761445085921705E-2</v>
-      </c>
-      <c r="M17" s="55"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+      <c r="C17" s="66">
+        <f>1-C16</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D17" s="66">
+        <f t="shared" ref="D17:L17" si="3">1-D16</f>
+        <v>0.51020408163265307</v>
+      </c>
+      <c r="E17" s="66">
+        <f t="shared" si="3"/>
+        <v>0.36443148688046645</v>
+      </c>
+      <c r="F17" s="66">
+        <f t="shared" si="3"/>
+        <v>0.26030820491461892</v>
+      </c>
+      <c r="G17" s="66">
+        <f t="shared" si="3"/>
+        <v>0.18593443208187066</v>
+      </c>
+      <c r="H17" s="66">
+        <f t="shared" si="3"/>
+        <v>0.13281030862990761</v>
+      </c>
+      <c r="I17" s="66">
+        <f t="shared" si="3"/>
+        <v>9.4864506164219708E-2</v>
+      </c>
+      <c r="J17" s="66">
+        <f t="shared" si="3"/>
+        <v>6.7760361545871173E-2</v>
+      </c>
+      <c r="K17" s="66">
+        <f t="shared" si="3"/>
+        <v>4.8400258247050854E-2</v>
+      </c>
+      <c r="L17" s="66">
+        <f t="shared" si="3"/>
+        <v>3.4571613033607784E-2</v>
+      </c>
+      <c r="M17" s="61"/>
+    </row>
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="21"/>
       <c r="B18" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="60">
+        <f>C16</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D18" s="63">
+        <f>D16-C16</f>
+        <v>0.20408163265306123</v>
+      </c>
+      <c r="E18" s="63">
+        <f>E16-D16</f>
+        <v>0.14577259475218662</v>
+      </c>
+      <c r="F18" s="63">
+        <f t="shared" ref="F18:L18" si="4">F16-E16</f>
+        <v>0.10412328196584753</v>
+      </c>
+      <c r="G18" s="63">
+        <f t="shared" si="4"/>
+        <v>7.4373772832748264E-2</v>
+      </c>
+      <c r="H18" s="63">
+        <f t="shared" si="4"/>
+        <v>5.3124123451963046E-2</v>
+      </c>
+      <c r="I18" s="63">
+        <f t="shared" si="4"/>
+        <v>3.7945802465687906E-2</v>
+      </c>
+      <c r="J18" s="63">
+        <f t="shared" si="4"/>
+        <v>2.7104144618348536E-2</v>
+      </c>
+      <c r="K18" s="63">
+        <f t="shared" si="4"/>
+        <v>1.9360103298820319E-2</v>
+      </c>
+      <c r="L18" s="63">
+        <f t="shared" si="4"/>
+        <v>1.3828645213443069E-2</v>
+      </c>
+      <c r="M18" s="55"/>
+    </row>
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="21"/>
+      <c r="B19" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57">
-        <f>SUM(C17:G17)/5</f>
-        <v>0.14613418513141913</v>
-      </c>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="57">
-        <f>SUM(C17:L17)/10</f>
-        <v>9.2746184971359419E-2</v>
-      </c>
-      <c r="M18" s="55"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="21"/>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57">
+        <f>SUM(C18:G18)/5</f>
+        <v>0.16281311358362588</v>
+      </c>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="57">
+        <f>SUM(C18:L18)/10</f>
+        <v>9.6542838696639224E-2</v>
+      </c>
+      <c r="M19" s="55"/>
+    </row>
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="21"/>
+      <c r="B20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="21"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="21"/>
-      <c r="B20" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="50">
-        <f>C17 * $C$5</f>
-        <v>9.2307692307692313E-2</v>
-      </c>
-      <c r="D20" s="47">
-        <f>D17 * $C$5</f>
-        <v>7.1005917159763302E-2</v>
-      </c>
-      <c r="E20" s="47">
-        <f t="shared" ref="E20:L20" si="5">E17 * $C$5</f>
-        <v>5.4619936276740999E-2</v>
-      </c>
-      <c r="F20" s="47">
-        <f t="shared" si="5"/>
-        <v>4.2015335597493091E-2</v>
-      </c>
-      <c r="G20" s="47">
-        <f t="shared" si="5"/>
-        <v>3.2319488921148533E-2</v>
-      </c>
-      <c r="H20" s="47">
-        <f t="shared" si="5"/>
-        <v>2.4861145323960443E-2</v>
-      </c>
-      <c r="I20" s="47">
-        <f t="shared" si="5"/>
-        <v>1.9123957941507987E-2</v>
-      </c>
-      <c r="J20" s="47">
-        <f t="shared" si="5"/>
-        <v>1.4710736878083087E-2</v>
-      </c>
-      <c r="K20" s="47">
-        <f t="shared" si="5"/>
-        <v>1.1315951444679274E-2</v>
-      </c>
-      <c r="L20" s="47">
-        <f t="shared" si="5"/>
-        <v>8.7045780343686825E-3</v>
-      </c>
-      <c r="M20" s="55"/>
-    </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C20" s="38"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="21"/>
+    </row>
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="21"/>
       <c r="B21" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="49">
-        <f>SUM(C20:G20)/5</f>
-        <v>5.8453674052567649E-2</v>
-      </c>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="49">
-        <f>SUM(C20:L20)/10</f>
-        <v>3.7098473988543781E-2</v>
+        <v>32</v>
+      </c>
+      <c r="C21" s="50">
+        <f>C18 * $C$5</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D21" s="47">
+        <f>D18 * $C$5</f>
+        <v>0.10204081632653061</v>
+      </c>
+      <c r="E21" s="47">
+        <f t="shared" ref="E21:L21" si="5">E18 * $C$5</f>
+        <v>7.2886297376093312E-2</v>
+      </c>
+      <c r="F21" s="47">
+        <f t="shared" si="5"/>
+        <v>5.2061640982923763E-2</v>
+      </c>
+      <c r="G21" s="47">
+        <f t="shared" si="5"/>
+        <v>3.7186886416374132E-2</v>
+      </c>
+      <c r="H21" s="47">
+        <f t="shared" si="5"/>
+        <v>2.6562061725981523E-2</v>
+      </c>
+      <c r="I21" s="47">
+        <f t="shared" si="5"/>
+        <v>1.8972901232843953E-2</v>
+      </c>
+      <c r="J21" s="47">
+        <f t="shared" si="5"/>
+        <v>1.3552072309174268E-2</v>
+      </c>
+      <c r="K21" s="47">
+        <f t="shared" si="5"/>
+        <v>9.6800516494101596E-3</v>
+      </c>
+      <c r="L21" s="47">
+        <f t="shared" si="5"/>
+        <v>6.9143226067215346E-3</v>
       </c>
       <c r="M21" s="55"/>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="21"/>
       <c r="B22" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="17">
-        <f>10*C20</f>
-        <v>0.92307692307692313</v>
-      </c>
-      <c r="D22" s="4">
-        <f t="shared" ref="D22:L22" si="6">10*D20</f>
-        <v>0.71005917159763299</v>
-      </c>
-      <c r="E22" s="4">
-        <f t="shared" si="6"/>
-        <v>0.54619936276740999</v>
-      </c>
-      <c r="F22" s="4">
-        <f t="shared" si="6"/>
-        <v>0.42015335597493092</v>
-      </c>
-      <c r="G22" s="4">
-        <f t="shared" si="6"/>
-        <v>0.32319488921148531</v>
-      </c>
-      <c r="H22" s="4">
-        <f t="shared" si="6"/>
-        <v>0.24861145323960443</v>
-      </c>
-      <c r="I22" s="4">
-        <f t="shared" si="6"/>
-        <v>0.19123957941507985</v>
-      </c>
-      <c r="J22" s="4">
-        <f t="shared" si="6"/>
-        <v>0.14710736878083086</v>
-      </c>
-      <c r="K22" s="4">
-        <f t="shared" si="6"/>
-        <v>0.11315951444679273</v>
-      </c>
-      <c r="L22" s="4">
-        <f t="shared" si="6"/>
-        <v>8.7045780343686818E-2</v>
+        <v>33</v>
+      </c>
+      <c r="C22" s="51"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="49">
+        <f>SUM(C21:G21)/5</f>
+        <v>8.140655679181294E-2</v>
+      </c>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="49">
+        <f>SUM(C21:L21)/10</f>
+        <v>4.8271419348319612E-2</v>
       </c>
       <c r="M22" s="55"/>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="21"/>
       <c r="B23" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="15">
-        <f>C22</f>
-        <v>0.92307692307692313</v>
-      </c>
-      <c r="D23" s="16">
-        <f>D22+C23</f>
-        <v>1.6331360946745561</v>
-      </c>
-      <c r="E23" s="16">
-        <f t="shared" ref="E23" si="7">E22+D23</f>
-        <v>2.1793354574419661</v>
-      </c>
-      <c r="F23" s="16">
-        <f t="shared" ref="F23" si="8">F22+E23</f>
-        <v>2.599488813416897</v>
-      </c>
-      <c r="G23" s="16">
-        <f t="shared" ref="G23" si="9">G22+F23</f>
-        <v>2.9226837026283823</v>
-      </c>
-      <c r="H23" s="16">
-        <f t="shared" ref="H23" si="10">H22+G23</f>
-        <v>3.1712951558679867</v>
-      </c>
-      <c r="I23" s="16">
-        <f t="shared" ref="I23" si="11">I22+H23</f>
-        <v>3.3625347352830666</v>
-      </c>
-      <c r="J23" s="16">
-        <f t="shared" ref="J23" si="12">J22+I23</f>
-        <v>3.5096421040638974</v>
-      </c>
-      <c r="K23" s="16">
-        <f t="shared" ref="K23" si="13">K22+J23</f>
-        <v>3.6228016185106902</v>
-      </c>
-      <c r="L23" s="16">
-        <f t="shared" ref="L23" si="14">L22+K23</f>
-        <v>3.709847398854377</v>
+        <v>34</v>
+      </c>
+      <c r="C23" s="17">
+        <f>10*C21</f>
+        <v>1.4285714285714284</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" ref="D23:L23" si="6">10*D21</f>
+        <v>1.0204081632653061</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="6"/>
+        <v>0.72886297376093312</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="6"/>
+        <v>0.52061640982923763</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="6"/>
+        <v>0.37186886416374132</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="6"/>
+        <v>0.26562061725981523</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="6"/>
+        <v>0.18972901232843953</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="6"/>
+        <v>0.13552072309174268</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" si="6"/>
+        <v>9.6800516494101596E-2</v>
+      </c>
+      <c r="L23" s="4">
+        <f t="shared" si="6"/>
+        <v>6.9143226067215346E-2</v>
       </c>
       <c r="M23" s="55"/>
-    </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="P23" s="37"/>
+    </row>
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="21"/>
       <c r="B24" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="66">
-        <f>C20*C13/$C$3</f>
-        <v>0.12</v>
-      </c>
-      <c r="D24" s="66">
-        <f t="shared" ref="D24:L24" si="15">D20*D13/$C$3</f>
-        <v>0.11999999999999998</v>
-      </c>
-      <c r="E24" s="66">
-        <f t="shared" si="15"/>
-        <v>0.11999999999999998</v>
-      </c>
-      <c r="F24" s="66">
-        <f t="shared" si="15"/>
-        <v>0.12000000000000002</v>
-      </c>
-      <c r="G24" s="66">
-        <f t="shared" si="15"/>
-        <v>0.12000000000000002</v>
-      </c>
-      <c r="H24" s="66">
-        <f t="shared" si="15"/>
-        <v>0.12000000000000018</v>
-      </c>
-      <c r="I24" s="66">
-        <f t="shared" si="15"/>
-        <v>0.11999999999999988</v>
-      </c>
-      <c r="J24" s="66">
-        <f t="shared" si="15"/>
-        <v>0.12000000000000005</v>
-      </c>
-      <c r="K24" s="66">
-        <f t="shared" si="15"/>
-        <v>0.11999999999999982</v>
-      </c>
-      <c r="L24" s="66">
-        <f t="shared" si="15"/>
-        <v>0.11999999999999994</v>
-      </c>
-      <c r="M24" s="61"/>
-    </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+      <c r="C24" s="15">
+        <f>C23</f>
+        <v>1.4285714285714284</v>
+      </c>
+      <c r="D24" s="16">
+        <f>D23+C24</f>
+        <v>2.4489795918367347</v>
+      </c>
+      <c r="E24" s="16">
+        <f t="shared" ref="E24" si="7">E23+D24</f>
+        <v>3.1778425655976679</v>
+      </c>
+      <c r="F24" s="16">
+        <f t="shared" ref="F24" si="8">F23+E24</f>
+        <v>3.6984589754269055</v>
+      </c>
+      <c r="G24" s="16">
+        <f t="shared" ref="G24" si="9">G23+F24</f>
+        <v>4.0703278395906466</v>
+      </c>
+      <c r="H24" s="16">
+        <f t="shared" ref="H24" si="10">H23+G24</f>
+        <v>4.3359484568504616</v>
+      </c>
+      <c r="I24" s="16">
+        <f t="shared" ref="I24" si="11">I23+H24</f>
+        <v>4.525677469178901</v>
+      </c>
+      <c r="J24" s="16">
+        <f t="shared" ref="J24" si="12">J23+I24</f>
+        <v>4.6611981922706436</v>
+      </c>
+      <c r="K24" s="16">
+        <f t="shared" ref="K24" si="13">K23+J24</f>
+        <v>4.7579987087647453</v>
+      </c>
+      <c r="L24" s="16">
+        <f t="shared" ref="L24" si="14">L23+K24</f>
+        <v>4.8271419348319604</v>
+      </c>
+      <c r="M24" s="55"/>
+      <c r="P24" s="37"/>
+    </row>
+    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="21"/>
       <c r="B25" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="30">
-        <f t="shared" ref="C25:L25" si="16">1000000*C24</f>
-        <v>120000</v>
-      </c>
-      <c r="D25" s="30">
-        <f t="shared" si="16"/>
-        <v>119999.99999999999</v>
-      </c>
-      <c r="E25" s="62">
-        <f t="shared" si="16"/>
-        <v>119999.99999999999</v>
-      </c>
-      <c r="F25" s="62">
-        <f t="shared" si="16"/>
-        <v>120000.00000000003</v>
-      </c>
-      <c r="G25" s="62">
-        <f t="shared" si="16"/>
-        <v>120000.00000000003</v>
-      </c>
-      <c r="H25" s="62">
-        <f t="shared" si="16"/>
-        <v>120000.00000000017</v>
-      </c>
-      <c r="I25" s="62">
-        <f t="shared" si="16"/>
-        <v>119999.99999999988</v>
-      </c>
-      <c r="J25" s="62">
-        <f t="shared" si="16"/>
-        <v>120000.00000000006</v>
-      </c>
-      <c r="K25" s="62">
-        <f t="shared" si="16"/>
-        <v>119999.99999999981</v>
-      </c>
-      <c r="L25" s="62">
-        <f t="shared" si="16"/>
-        <v>119999.99999999994</v>
-      </c>
-      <c r="M25" s="55"/>
-    </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+      <c r="C25" s="66">
+        <f>C21*C14/$C$3</f>
+        <v>0.2</v>
+      </c>
+      <c r="D25" s="66">
+        <f t="shared" ref="D25:L25" si="15">D21*D14/$C$3</f>
+        <v>0.2</v>
+      </c>
+      <c r="E25" s="66">
+        <f t="shared" si="15"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="F25" s="66">
+        <f t="shared" si="15"/>
+        <v>0.19999999999999993</v>
+      </c>
+      <c r="G25" s="66">
+        <f t="shared" si="15"/>
+        <v>0.2</v>
+      </c>
+      <c r="H25" s="66">
+        <f t="shared" si="15"/>
+        <v>0.2</v>
+      </c>
+      <c r="I25" s="66">
+        <f t="shared" si="15"/>
+        <v>0.20000000000000012</v>
+      </c>
+      <c r="J25" s="66">
+        <f t="shared" si="15"/>
+        <v>0.20000000000000032</v>
+      </c>
+      <c r="K25" s="66">
+        <f t="shared" si="15"/>
+        <v>0.19999999999999968</v>
+      </c>
+      <c r="L25" s="66">
+        <f t="shared" si="15"/>
+        <v>0.19999999999999946</v>
+      </c>
+      <c r="M25" s="61"/>
+    </row>
+    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="21"/>
       <c r="B26" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="30">
+        <f>1000000*C25</f>
+        <v>200000</v>
+      </c>
+      <c r="D26" s="30">
+        <f t="shared" ref="D26:L26" si="16">1000000*D25</f>
+        <v>200000</v>
+      </c>
+      <c r="E26" s="62">
+        <f t="shared" si="16"/>
+        <v>200000.00000000003</v>
+      </c>
+      <c r="F26" s="62">
+        <f t="shared" si="16"/>
+        <v>199999.99999999994</v>
+      </c>
+      <c r="G26" s="62">
+        <f t="shared" si="16"/>
+        <v>200000</v>
+      </c>
+      <c r="H26" s="62">
+        <f t="shared" si="16"/>
+        <v>200000</v>
+      </c>
+      <c r="I26" s="62">
+        <f t="shared" si="16"/>
+        <v>200000.00000000012</v>
+      </c>
+      <c r="J26" s="62">
+        <f t="shared" si="16"/>
+        <v>200000.00000000032</v>
+      </c>
+      <c r="K26" s="62">
+        <f t="shared" si="16"/>
+        <v>199999.99999999968</v>
+      </c>
+      <c r="L26" s="62">
+        <f t="shared" si="16"/>
+        <v>199999.99999999945</v>
+      </c>
+      <c r="M26" s="55"/>
+    </row>
+    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="21"/>
+      <c r="B27" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="31">
-        <f>C25</f>
-        <v>120000</v>
-      </c>
-      <c r="D26" s="31">
-        <f>D25+C26</f>
-        <v>240000</v>
-      </c>
-      <c r="E26" s="32">
-        <f t="shared" ref="E26:L26" si="17">E25+D26</f>
-        <v>360000</v>
-      </c>
-      <c r="F26" s="32">
+      <c r="C27" s="31">
+        <f>C26</f>
+        <v>200000</v>
+      </c>
+      <c r="D27" s="31">
+        <f>D26+C27</f>
+        <v>400000</v>
+      </c>
+      <c r="E27" s="32">
+        <f t="shared" ref="E27:L27" si="17">E26+D27</f>
+        <v>600000</v>
+      </c>
+      <c r="F27" s="32">
         <f t="shared" si="17"/>
-        <v>480000</v>
-      </c>
-      <c r="G26" s="32">
+        <v>800000</v>
+      </c>
+      <c r="G27" s="32">
         <f t="shared" si="17"/>
-        <v>600000</v>
-      </c>
-      <c r="H26" s="32">
-        <f t="shared" si="17"/>
-        <v>720000.00000000023</v>
-      </c>
-      <c r="I26" s="32">
-        <f t="shared" si="17"/>
-        <v>840000.00000000012</v>
-      </c>
-      <c r="J26" s="32">
-        <f t="shared" si="17"/>
-        <v>960000.00000000023</v>
-      </c>
-      <c r="K26" s="32">
-        <f t="shared" si="17"/>
-        <v>1080000</v>
-      </c>
-      <c r="L26" s="32">
+        <v>1000000</v>
+      </c>
+      <c r="H27" s="32">
         <f t="shared" si="17"/>
         <v>1200000</v>
       </c>
-      <c r="M26" s="55"/>
-    </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="21"/>
-      <c r="B27" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="54">
-        <f>(C13-$C$3)*$C$5/$C$3</f>
-        <v>0.12</v>
-      </c>
-      <c r="D27" s="54">
-        <f>(D13-$C$3)*$C$5/$C$3-C27</f>
-        <v>0.15600000000000003</v>
-      </c>
-      <c r="E27" s="54">
-        <f t="shared" ref="E27:L27" si="18">(E13-$C$3)*$C$5/$C$3-D27</f>
-        <v>0.32279999999999998</v>
-      </c>
-      <c r="F27" s="54">
-        <f t="shared" si="18"/>
-        <v>0.41964000000000001</v>
-      </c>
-      <c r="G27" s="54">
-        <f t="shared" si="18"/>
-        <v>0.66553200000000001</v>
-      </c>
-      <c r="H27" s="54">
-        <f t="shared" si="18"/>
-        <v>0.86519160000000017</v>
-      </c>
-      <c r="I27" s="54">
-        <f t="shared" si="18"/>
-        <v>1.2447490800000001</v>
-      </c>
-      <c r="J27" s="54">
-        <f t="shared" si="18"/>
-        <v>1.618173804</v>
-      </c>
-      <c r="K27" s="54">
-        <f t="shared" si="18"/>
-        <v>2.2236259452000007</v>
-      </c>
-      <c r="L27" s="54">
-        <f t="shared" si="18"/>
-        <v>2.8907137287600002</v>
-      </c>
-      <c r="M27" s="21"/>
-    </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I27" s="32">
+        <f t="shared" si="17"/>
+        <v>1400000</v>
+      </c>
+      <c r="J27" s="32">
+        <f t="shared" si="17"/>
+        <v>1600000.0000000002</v>
+      </c>
+      <c r="K27" s="32">
+        <f t="shared" si="17"/>
+        <v>1800000</v>
+      </c>
+      <c r="L27" s="32">
+        <f t="shared" si="17"/>
+        <v>1999999.9999999995</v>
+      </c>
+      <c r="M27" s="55"/>
+    </row>
+    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="21"/>
       <c r="B28" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54">
-        <f>SUM(C27:G27)/5</f>
-        <v>0.33679439999999999</v>
-      </c>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54">
-        <f>SUM(C27:L27)/10</f>
-        <v>1.052642615796</v>
+        <v>56</v>
+      </c>
+      <c r="C28" s="66">
+        <f>C24/10*C14/$C$3</f>
+        <v>0.2</v>
+      </c>
+      <c r="D28" s="66">
+        <f>D24/10*D14/$C$3-C28</f>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="E28" s="66">
+        <f>E24/10*E14/$C$3-D28-C28</f>
+        <v>0.39200000000000007</v>
+      </c>
+      <c r="F28" s="66">
+        <f>F24/10*F14/$C$3-E28-D28-C28</f>
+        <v>0.54879999999999995</v>
+      </c>
+      <c r="G28" s="66">
+        <f>G24/10*G14/$C$3-F28-E28-D28-C28</f>
+        <v>0.76831999999999989</v>
+      </c>
+      <c r="H28" s="66">
+        <f>H24/10*H14/$C$3-G28-F28-E28-D28-C28</f>
+        <v>1.075647999999999</v>
+      </c>
+      <c r="I28" s="66">
+        <f>I24/10*I14/$C$3-H28-G28-F28-E28-D28-C28</f>
+        <v>1.5059072</v>
+      </c>
+      <c r="J28" s="66">
+        <f>J24/10*J14/$C$3-I28-H28-G28-F28-E28-D28-C28</f>
+        <v>2.1082700800000014</v>
+      </c>
+      <c r="K28" s="66">
+        <f>K24/10*K14/$C$3-J28-I28-H28-G28-F28-E28-D28-C28</f>
+        <v>2.9515781119999991</v>
+      </c>
+      <c r="L28" s="66">
+        <f>L24/10*L14/$C$3-K28-J28-I28-H28-G28-F28-E28-D28-C28</f>
+        <v>4.1322093567999998</v>
       </c>
       <c r="M28" s="21"/>
-    </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="P28" s="42"/>
+    </row>
+    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="21"/>
       <c r="B29" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="67">
-        <f>C23*C13</f>
-        <v>120000</v>
-      </c>
-      <c r="D29" s="67">
-        <f t="shared" ref="D29:L29" si="19">D23*D13</f>
-        <v>276000</v>
-      </c>
-      <c r="E29" s="67">
-        <f t="shared" si="19"/>
-        <v>478799.99999999994</v>
-      </c>
-      <c r="F29" s="67">
-        <f t="shared" si="19"/>
-        <v>742440</v>
-      </c>
-      <c r="G29" s="67">
-        <f>G23*G13</f>
-        <v>1085172</v>
-      </c>
-      <c r="H29" s="67">
-        <f t="shared" si="19"/>
-        <v>1530723.6</v>
-      </c>
-      <c r="I29" s="67">
-        <f t="shared" si="19"/>
-        <v>2109940.6800000002</v>
-      </c>
-      <c r="J29" s="67">
-        <f t="shared" si="19"/>
-        <v>2862922.8840000001</v>
-      </c>
-      <c r="K29" s="67">
-        <f t="shared" si="19"/>
-        <v>3841799.7492000004</v>
-      </c>
-      <c r="L29" s="67">
-        <f t="shared" si="19"/>
-        <v>5114339.6739600003</v>
+        <v>55</v>
+      </c>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54">
+        <f>SUM(C28:G28)/5</f>
+        <v>0.43782399999999999</v>
+      </c>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54">
+        <f>SUM(C28:L28)/10</f>
+        <v>1.39627327488</v>
       </c>
       <c r="M29" s="21"/>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="21"/>
-      <c r="B30" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="65"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
+      <c r="B30" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="67">
+        <f>1000000*C28</f>
+        <v>200000</v>
+      </c>
+      <c r="D30" s="67">
+        <f t="shared" ref="D30:L30" si="18">1000000*D28</f>
+        <v>280000</v>
+      </c>
+      <c r="E30" s="67">
+        <f t="shared" si="18"/>
+        <v>392000.00000000006</v>
+      </c>
+      <c r="F30" s="67">
+        <f t="shared" si="18"/>
+        <v>548800</v>
+      </c>
+      <c r="G30" s="67">
+        <f t="shared" si="18"/>
+        <v>768319.99999999988</v>
+      </c>
+      <c r="H30" s="67">
+        <f t="shared" si="18"/>
+        <v>1075647.9999999991</v>
+      </c>
+      <c r="I30" s="67">
+        <f t="shared" si="18"/>
+        <v>1505907.2</v>
+      </c>
+      <c r="J30" s="67">
+        <f t="shared" si="18"/>
+        <v>2108270.0800000015</v>
+      </c>
+      <c r="K30" s="67">
+        <f t="shared" si="18"/>
+        <v>2951578.1119999993</v>
+      </c>
+      <c r="L30" s="67">
+        <f t="shared" si="18"/>
+        <v>4132209.3567999997</v>
+      </c>
       <c r="M30" s="21"/>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="21"/>
       <c r="B31" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="66">
-        <f t="shared" ref="C31:L31" si="20">C17 * $C$6</f>
-        <v>9.2307692307692313E-2</v>
-      </c>
-      <c r="D31" s="66">
-        <f t="shared" si="20"/>
-        <v>7.1005917159763302E-2</v>
-      </c>
-      <c r="E31" s="66">
-        <f t="shared" si="20"/>
-        <v>5.4619936276740999E-2</v>
-      </c>
-      <c r="F31" s="66">
-        <f t="shared" si="20"/>
-        <v>4.2015335597493091E-2</v>
-      </c>
-      <c r="G31" s="66">
-        <f t="shared" si="20"/>
-        <v>3.2319488921148533E-2</v>
-      </c>
-      <c r="H31" s="66">
-        <f t="shared" si="20"/>
-        <v>2.4861145323960443E-2</v>
-      </c>
-      <c r="I31" s="66">
-        <f t="shared" si="20"/>
-        <v>1.9123957941507987E-2</v>
-      </c>
-      <c r="J31" s="66">
-        <f t="shared" si="20"/>
-        <v>1.4710736878083087E-2</v>
-      </c>
-      <c r="K31" s="66">
-        <f t="shared" si="20"/>
-        <v>1.1315951444679274E-2</v>
-      </c>
-      <c r="L31" s="66">
-        <f t="shared" si="20"/>
-        <v>8.7045780343686825E-3</v>
+        <v>53</v>
+      </c>
+      <c r="C31" s="67">
+        <f>C30</f>
+        <v>200000</v>
+      </c>
+      <c r="D31" s="67">
+        <f>C31+D30</f>
+        <v>480000</v>
+      </c>
+      <c r="E31" s="67">
+        <f t="shared" ref="E31:L31" si="19">D31+E30</f>
+        <v>872000</v>
+      </c>
+      <c r="F31" s="67">
+        <f t="shared" si="19"/>
+        <v>1420800</v>
+      </c>
+      <c r="G31" s="67">
+        <f t="shared" si="19"/>
+        <v>2189120</v>
+      </c>
+      <c r="H31" s="67">
+        <f t="shared" si="19"/>
+        <v>3264767.9999999991</v>
+      </c>
+      <c r="I31" s="67">
+        <f t="shared" si="19"/>
+        <v>4770675.1999999993</v>
+      </c>
+      <c r="J31" s="67">
+        <f t="shared" si="19"/>
+        <v>6878945.2800000012</v>
+      </c>
+      <c r="K31" s="67">
+        <f t="shared" si="19"/>
+        <v>9830523.3920000009</v>
+      </c>
+      <c r="L31" s="67">
+        <f t="shared" si="19"/>
+        <v>13962732.7488</v>
       </c>
       <c r="M31" s="21"/>
     </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="21"/>
-      <c r="B32" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="54">
-        <f>SUM(C31:G31)/5</f>
-        <v>5.8453674052567649E-2</v>
-      </c>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="54">
-        <f>SUM(C31:L31)/10</f>
-        <v>3.7098473988543781E-2</v>
-      </c>
+      <c r="B32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="65"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
       <c r="M32" s="21"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="21"/>
       <c r="B33" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="13">
-        <f>10*C31</f>
-        <v>0.92307692307692313</v>
-      </c>
-      <c r="D33" s="14">
-        <f t="shared" ref="D33:L33" si="21">10*D31</f>
-        <v>0.71005917159763299</v>
-      </c>
-      <c r="E33" s="14">
-        <f t="shared" si="21"/>
-        <v>0.54619936276740999</v>
-      </c>
-      <c r="F33" s="14">
-        <f t="shared" si="21"/>
-        <v>0.42015335597493092</v>
-      </c>
-      <c r="G33" s="14">
-        <f t="shared" si="21"/>
-        <v>0.32319488921148531</v>
-      </c>
-      <c r="H33" s="14">
-        <f t="shared" si="21"/>
-        <v>0.24861145323960443</v>
-      </c>
-      <c r="I33" s="14">
-        <f t="shared" si="21"/>
-        <v>0.19123957941507985</v>
-      </c>
-      <c r="J33" s="14">
-        <f t="shared" si="21"/>
-        <v>0.14710736878083086</v>
-      </c>
-      <c r="K33" s="14">
-        <f t="shared" si="21"/>
-        <v>0.11315951444679273</v>
-      </c>
-      <c r="L33" s="14">
-        <f t="shared" si="21"/>
-        <v>8.7045780343686818E-2</v>
-      </c>
-      <c r="M33" s="55"/>
+        <v>32</v>
+      </c>
+      <c r="C33" s="66">
+        <f>C18 * $C$6</f>
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="D33" s="66">
+        <f>D18 * $C$6</f>
+        <v>8.1632653061224497E-2</v>
+      </c>
+      <c r="E33" s="66">
+        <f>E18 * $C$6</f>
+        <v>5.8309037900874654E-2</v>
+      </c>
+      <c r="F33" s="66">
+        <f>F18 * $C$6</f>
+        <v>4.1649312786339016E-2</v>
+      </c>
+      <c r="G33" s="66">
+        <f>G18 * $C$6</f>
+        <v>2.9749509133099306E-2</v>
+      </c>
+      <c r="H33" s="66">
+        <f>H18 * $C$6</f>
+        <v>2.1249649380785218E-2</v>
+      </c>
+      <c r="I33" s="66">
+        <f>I18 * $C$6</f>
+        <v>1.5178320986275163E-2</v>
+      </c>
+      <c r="J33" s="66">
+        <f>J18 * $C$6</f>
+        <v>1.0841657847339415E-2</v>
+      </c>
+      <c r="K33" s="66">
+        <f>K18 * $C$6</f>
+        <v>7.744041319528128E-3</v>
+      </c>
+      <c r="L33" s="66">
+        <f>L18 * $C$6</f>
+        <v>5.5314580853772282E-3</v>
+      </c>
+      <c r="M33" s="21"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="21"/>
       <c r="B34" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="15">
-        <f>C33</f>
-        <v>0.92307692307692313</v>
-      </c>
-      <c r="D34" s="16">
-        <f>D33+C34</f>
-        <v>1.6331360946745561</v>
-      </c>
-      <c r="E34" s="16">
-        <f t="shared" ref="E34" si="22">E33+D34</f>
-        <v>2.1793354574419661</v>
-      </c>
-      <c r="F34" s="16">
-        <f t="shared" ref="F34" si="23">F33+E34</f>
-        <v>2.599488813416897</v>
-      </c>
-      <c r="G34" s="16">
-        <f t="shared" ref="G34" si="24">G33+F34</f>
-        <v>2.9226837026283823</v>
-      </c>
-      <c r="H34" s="16">
-        <f t="shared" ref="H34" si="25">H33+G34</f>
-        <v>3.1712951558679867</v>
-      </c>
-      <c r="I34" s="16">
-        <f t="shared" ref="I34" si="26">I33+H34</f>
-        <v>3.3625347352830666</v>
-      </c>
-      <c r="J34" s="16">
-        <f t="shared" ref="J34" si="27">J33+I34</f>
-        <v>3.5096421040638974</v>
-      </c>
-      <c r="K34" s="16">
-        <f t="shared" ref="K34" si="28">K33+J34</f>
-        <v>3.6228016185106902</v>
-      </c>
-      <c r="L34" s="16">
-        <f t="shared" ref="L34" si="29">L33+K34</f>
-        <v>3.709847398854377</v>
-      </c>
-      <c r="M34" s="55"/>
+        <v>33</v>
+      </c>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="54">
+        <f>SUM(C33:G33)/5</f>
+        <v>6.5125245433450357E-2</v>
+      </c>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="54">
+        <f>SUM(C33:L33)/10</f>
+        <v>3.8617135478655695E-2</v>
+      </c>
+      <c r="M34" s="21"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="21"/>
-      <c r="B35" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="65"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="21"/>
+      <c r="B35" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="13">
+        <f>10*C33</f>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="D35" s="14">
+        <f t="shared" ref="D35:L35" si="20">10*D33</f>
+        <v>0.81632653061224492</v>
+      </c>
+      <c r="E35" s="14">
+        <f t="shared" si="20"/>
+        <v>0.5830903790087465</v>
+      </c>
+      <c r="F35" s="14">
+        <f t="shared" si="20"/>
+        <v>0.41649312786339016</v>
+      </c>
+      <c r="G35" s="14">
+        <f t="shared" si="20"/>
+        <v>0.29749509133099306</v>
+      </c>
+      <c r="H35" s="14">
+        <f t="shared" si="20"/>
+        <v>0.21249649380785218</v>
+      </c>
+      <c r="I35" s="14">
+        <f t="shared" si="20"/>
+        <v>0.15178320986275162</v>
+      </c>
+      <c r="J35" s="14">
+        <f t="shared" si="20"/>
+        <v>0.10841657847339414</v>
+      </c>
+      <c r="K35" s="14">
+        <f t="shared" si="20"/>
+        <v>7.7440413195281277E-2</v>
+      </c>
+      <c r="L35" s="14">
+        <f t="shared" si="20"/>
+        <v>5.5314580853772284E-2</v>
+      </c>
+      <c r="M35" s="55"/>
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="21"/>
       <c r="B36" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="66">
-        <f t="shared" ref="C36:L36" si="30">C17 * $C$7</f>
-        <v>4.6153846153846156E-2</v>
-      </c>
-      <c r="D36" s="66">
-        <f t="shared" si="30"/>
-        <v>3.5502958579881651E-2</v>
-      </c>
-      <c r="E36" s="66">
-        <f t="shared" si="30"/>
-        <v>2.73099681383705E-2</v>
-      </c>
-      <c r="F36" s="66">
-        <f t="shared" si="30"/>
-        <v>2.1007667798746545E-2</v>
-      </c>
-      <c r="G36" s="66">
-        <f t="shared" si="30"/>
-        <v>1.6159744460574266E-2</v>
-      </c>
-      <c r="H36" s="66">
-        <f t="shared" si="30"/>
-        <v>1.2430572661980221E-2</v>
-      </c>
-      <c r="I36" s="66">
-        <f t="shared" si="30"/>
-        <v>9.5619789707539933E-3</v>
-      </c>
-      <c r="J36" s="66">
-        <f t="shared" si="30"/>
-        <v>7.3553684390415437E-3</v>
-      </c>
-      <c r="K36" s="66">
-        <f t="shared" si="30"/>
-        <v>5.6579757223396369E-3</v>
-      </c>
-      <c r="L36" s="66">
-        <f t="shared" si="30"/>
-        <v>4.3522890171843413E-3</v>
-      </c>
-      <c r="M36" s="21"/>
+        <v>26</v>
+      </c>
+      <c r="C36" s="15">
+        <f>C35</f>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="D36" s="16">
+        <f>D35+C36</f>
+        <v>1.9591836734693877</v>
+      </c>
+      <c r="E36" s="16">
+        <f t="shared" ref="E36" si="21">E35+D36</f>
+        <v>2.5422740524781342</v>
+      </c>
+      <c r="F36" s="16">
+        <f t="shared" ref="F36" si="22">F35+E36</f>
+        <v>2.9587671803415243</v>
+      </c>
+      <c r="G36" s="16">
+        <f t="shared" ref="G36" si="23">G35+F36</f>
+        <v>3.2562622716725174</v>
+      </c>
+      <c r="H36" s="16">
+        <f t="shared" ref="H36" si="24">H35+G36</f>
+        <v>3.4687587654803695</v>
+      </c>
+      <c r="I36" s="16">
+        <f t="shared" ref="I36" si="25">I35+H36</f>
+        <v>3.6205419753431212</v>
+      </c>
+      <c r="J36" s="16">
+        <f t="shared" ref="J36" si="26">J35+I36</f>
+        <v>3.7289585538165153</v>
+      </c>
+      <c r="K36" s="16">
+        <f t="shared" ref="K36" si="27">K35+J36</f>
+        <v>3.8063989670117966</v>
+      </c>
+      <c r="L36" s="16">
+        <f t="shared" ref="L36" si="28">L35+K36</f>
+        <v>3.8617135478655689</v>
+      </c>
+      <c r="M36" s="55"/>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="21"/>
-      <c r="B37" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="54">
-        <f>SUM(C36:G36)/5</f>
-        <v>2.9226837026283824E-2</v>
-      </c>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="54">
-        <f>SUM(C36:L36)/10</f>
-        <v>1.8549236994271891E-2</v>
-      </c>
+      <c r="B37" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="65"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
       <c r="M37" s="21"/>
     </row>
     <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="21"/>
       <c r="B38" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="13">
-        <f t="shared" ref="C38:L38" si="31">10*C36</f>
-        <v>0.46153846153846156</v>
-      </c>
-      <c r="D38" s="14">
-        <f t="shared" si="31"/>
-        <v>0.35502958579881649</v>
-      </c>
-      <c r="E38" s="14">
-        <f t="shared" si="31"/>
-        <v>0.273099681383705</v>
-      </c>
-      <c r="F38" s="14">
-        <f t="shared" si="31"/>
-        <v>0.21007667798746546</v>
-      </c>
-      <c r="G38" s="14">
-        <f t="shared" si="31"/>
-        <v>0.16159744460574266</v>
-      </c>
-      <c r="H38" s="14">
-        <f t="shared" si="31"/>
-        <v>0.12430572661980221</v>
-      </c>
-      <c r="I38" s="14">
-        <f t="shared" si="31"/>
-        <v>9.5619789707539926E-2</v>
-      </c>
-      <c r="J38" s="14">
-        <f t="shared" si="31"/>
-        <v>7.355368439041543E-2</v>
-      </c>
-      <c r="K38" s="14">
-        <f t="shared" si="31"/>
-        <v>5.6579757223396365E-2</v>
-      </c>
-      <c r="L38" s="14">
-        <f t="shared" si="31"/>
-        <v>4.3522890171843409E-2</v>
-      </c>
-      <c r="M38" s="59"/>
+        <v>32</v>
+      </c>
+      <c r="C38" s="66">
+        <f>C18 * $C$7</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="D38" s="66">
+        <f>D18 * $C$7</f>
+        <v>2.0408163265306124E-2</v>
+      </c>
+      <c r="E38" s="66">
+        <f>E18 * $C$7</f>
+        <v>1.4577259475218663E-2</v>
+      </c>
+      <c r="F38" s="66">
+        <f>F18 * $C$7</f>
+        <v>1.0412328196584754E-2</v>
+      </c>
+      <c r="G38" s="66">
+        <f>G18 * $C$7</f>
+        <v>7.4373772832748266E-3</v>
+      </c>
+      <c r="H38" s="66">
+        <f>H18 * $C$7</f>
+        <v>5.3124123451963046E-3</v>
+      </c>
+      <c r="I38" s="66">
+        <f>I18 * $C$7</f>
+        <v>3.7945802465687906E-3</v>
+      </c>
+      <c r="J38" s="66">
+        <f>J18 * $C$7</f>
+        <v>2.7104144618348537E-3</v>
+      </c>
+      <c r="K38" s="66">
+        <f>K18 * $C$7</f>
+        <v>1.936010329882032E-3</v>
+      </c>
+      <c r="L38" s="66">
+        <f>L18 * $C$7</f>
+        <v>1.3828645213443071E-3</v>
+      </c>
+      <c r="M38" s="21"/>
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="21"/>
       <c r="B39" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="17">
-        <f>C38</f>
-        <v>0.46153846153846156</v>
-      </c>
-      <c r="D39" s="4">
-        <f>D38+C39</f>
-        <v>0.81656804733727806</v>
-      </c>
-      <c r="E39" s="4">
-        <f t="shared" ref="E39:L39" si="32">E38+D39</f>
-        <v>1.0896677287209831</v>
-      </c>
-      <c r="F39" s="4">
-        <f t="shared" si="32"/>
-        <v>1.2997444067084485</v>
-      </c>
-      <c r="G39" s="4">
-        <f t="shared" si="32"/>
-        <v>1.4613418513141911</v>
-      </c>
-      <c r="H39" s="4">
-        <f t="shared" si="32"/>
-        <v>1.5856475779339934</v>
-      </c>
-      <c r="I39" s="4">
-        <f t="shared" si="32"/>
-        <v>1.6812673676415333</v>
-      </c>
-      <c r="J39" s="4">
-        <f t="shared" si="32"/>
-        <v>1.7548210520319487</v>
-      </c>
-      <c r="K39" s="4">
-        <f t="shared" si="32"/>
-        <v>1.8114008092553451</v>
-      </c>
-      <c r="L39" s="4">
-        <f t="shared" si="32"/>
-        <v>1.8549236994271885</v>
-      </c>
-      <c r="M39" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="54">
+        <f>SUM(C38:G38)/5</f>
+        <v>1.6281311358362589E-2</v>
+      </c>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="54">
+        <f>SUM(C38:L38)/10</f>
+        <v>9.6542838696639238E-3</v>
+      </c>
+      <c r="M39" s="21"/>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="21"/>
       <c r="B40" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="26">
-        <f>$C38*1000</f>
-        <v>461.53846153846155</v>
-      </c>
-      <c r="D40" s="27">
-        <f t="shared" ref="D40:L40" si="33">D38*1000</f>
-        <v>355.02958579881647</v>
-      </c>
-      <c r="E40" s="27">
-        <f t="shared" si="33"/>
-        <v>273.09968138370499</v>
-      </c>
-      <c r="F40" s="27">
-        <f t="shared" si="33"/>
-        <v>210.07667798746547</v>
-      </c>
-      <c r="G40" s="27">
-        <f t="shared" si="33"/>
-        <v>161.59744460574265</v>
-      </c>
-      <c r="H40" s="27">
-        <f t="shared" si="33"/>
-        <v>124.30572661980221</v>
-      </c>
-      <c r="I40" s="27">
-        <f t="shared" si="33"/>
-        <v>95.619789707539923</v>
-      </c>
-      <c r="J40" s="27">
-        <f t="shared" si="33"/>
-        <v>73.553684390415427</v>
-      </c>
-      <c r="K40" s="27">
-        <f t="shared" si="33"/>
-        <v>56.579757223396363</v>
-      </c>
-      <c r="L40" s="27">
-        <f t="shared" si="33"/>
-        <v>43.522890171843407</v>
+        <v>34</v>
+      </c>
+      <c r="C40" s="13">
+        <f t="shared" ref="C40:L40" si="29">10*C38</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D40" s="14">
+        <f t="shared" si="29"/>
+        <v>0.20408163265306123</v>
+      </c>
+      <c r="E40" s="14">
+        <f t="shared" si="29"/>
+        <v>0.14577259475218662</v>
+      </c>
+      <c r="F40" s="14">
+        <f t="shared" si="29"/>
+        <v>0.10412328196584754</v>
+      </c>
+      <c r="G40" s="14">
+        <f t="shared" si="29"/>
+        <v>7.4373772832748264E-2</v>
+      </c>
+      <c r="H40" s="14">
+        <f t="shared" si="29"/>
+        <v>5.3124123451963046E-2</v>
+      </c>
+      <c r="I40" s="14">
+        <f t="shared" si="29"/>
+        <v>3.7945802465687906E-2</v>
+      </c>
+      <c r="J40" s="14">
+        <f t="shared" si="29"/>
+        <v>2.7104144618348536E-2</v>
+      </c>
+      <c r="K40" s="14">
+        <f t="shared" si="29"/>
+        <v>1.9360103298820319E-2</v>
+      </c>
+      <c r="L40" s="14">
+        <f t="shared" si="29"/>
+        <v>1.3828645213443071E-2</v>
       </c>
       <c r="M40" s="59"/>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="21"/>
       <c r="B41" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="26">
+        <v>26</v>
+      </c>
+      <c r="C41" s="17">
         <f>C40</f>
-        <v>461.53846153846155</v>
-      </c>
-      <c r="D41" s="27">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D41" s="4">
         <f>D40+C41</f>
-        <v>816.56804733727802</v>
-      </c>
-      <c r="E41" s="27">
-        <f t="shared" ref="E41:L41" si="34">E40+D41</f>
-        <v>1089.667728720983</v>
-      </c>
-      <c r="F41" s="27">
-        <f t="shared" si="34"/>
-        <v>1299.7444067084484</v>
-      </c>
-      <c r="G41" s="27">
-        <f t="shared" si="34"/>
-        <v>1461.341851314191</v>
-      </c>
-      <c r="H41" s="27">
-        <f t="shared" si="34"/>
-        <v>1585.6475779339933</v>
-      </c>
-      <c r="I41" s="27">
-        <f t="shared" si="34"/>
-        <v>1681.2673676415332</v>
-      </c>
-      <c r="J41" s="27">
-        <f t="shared" si="34"/>
-        <v>1754.8210520319485</v>
-      </c>
-      <c r="K41" s="27">
-        <f t="shared" si="34"/>
-        <v>1811.4008092553449</v>
-      </c>
-      <c r="L41" s="27">
-        <f t="shared" si="34"/>
-        <v>1854.9236994271882</v>
-      </c>
-      <c r="M41" s="59"/>
+        <v>0.48979591836734693</v>
+      </c>
+      <c r="E41" s="4">
+        <f t="shared" ref="E41:L41" si="30">E40+D41</f>
+        <v>0.63556851311953355</v>
+      </c>
+      <c r="F41" s="4">
+        <f t="shared" si="30"/>
+        <v>0.73969179508538108</v>
+      </c>
+      <c r="G41" s="4">
+        <f t="shared" si="30"/>
+        <v>0.81406556791812934</v>
+      </c>
+      <c r="H41" s="4">
+        <f t="shared" si="30"/>
+        <v>0.86718969137009239</v>
+      </c>
+      <c r="I41" s="4">
+        <f t="shared" si="30"/>
+        <v>0.90513549383578029</v>
+      </c>
+      <c r="J41" s="4">
+        <f t="shared" si="30"/>
+        <v>0.93223963845412883</v>
+      </c>
+      <c r="K41" s="4">
+        <f t="shared" si="30"/>
+        <v>0.95159974175294915</v>
+      </c>
+      <c r="L41" s="4">
+        <f t="shared" si="30"/>
+        <v>0.96542838696639222</v>
+      </c>
+      <c r="M41" s="4"/>
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="21"/>
       <c r="B42" s="52" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C42" s="26">
-        <f>C38*20000</f>
-        <v>9230.7692307692305</v>
+        <f>$C40*1000</f>
+        <v>285.71428571428572</v>
       </c>
       <c r="D42" s="27">
-        <f t="shared" ref="D42:L42" si="35">D38*20000</f>
-        <v>7100.5917159763303</v>
+        <f t="shared" ref="D42:L42" si="31">D40*1000</f>
+        <v>204.08163265306123</v>
       </c>
       <c r="E42" s="27">
-        <f t="shared" si="35"/>
-        <v>5461.9936276741</v>
+        <f t="shared" si="31"/>
+        <v>145.77259475218662</v>
       </c>
       <c r="F42" s="27">
-        <f t="shared" si="35"/>
-        <v>4201.5335597493095</v>
+        <f t="shared" si="31"/>
+        <v>104.12328196584754</v>
       </c>
       <c r="G42" s="27">
-        <f t="shared" si="35"/>
-        <v>3231.9488921148532</v>
+        <f t="shared" si="31"/>
+        <v>74.373772832748259</v>
       </c>
       <c r="H42" s="27">
-        <f t="shared" si="35"/>
-        <v>2486.1145323960445</v>
+        <f t="shared" si="31"/>
+        <v>53.124123451963044</v>
       </c>
       <c r="I42" s="27">
-        <f t="shared" si="35"/>
-        <v>1912.3957941507986</v>
+        <f t="shared" si="31"/>
+        <v>37.945802465687905</v>
       </c>
       <c r="J42" s="27">
-        <f t="shared" si="35"/>
-        <v>1471.0736878083087</v>
+        <f t="shared" si="31"/>
+        <v>27.104144618348535</v>
       </c>
       <c r="K42" s="27">
-        <f t="shared" si="35"/>
-        <v>1131.5951444679274</v>
+        <f t="shared" si="31"/>
+        <v>19.36010329882032</v>
       </c>
       <c r="L42" s="27">
-        <f t="shared" si="35"/>
-        <v>870.45780343686818</v>
+        <f t="shared" si="31"/>
+        <v>13.828645213443071</v>
       </c>
       <c r="M42" s="59"/>
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="21"/>
       <c r="B43" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" s="28">
+        <v>29</v>
+      </c>
+      <c r="C43" s="26">
         <f>C42</f>
-        <v>9230.7692307692305</v>
-      </c>
-      <c r="D43" s="29">
+        <v>285.71428571428572</v>
+      </c>
+      <c r="D43" s="27">
         <f>D42+C43</f>
-        <v>16331.360946745561</v>
-      </c>
-      <c r="E43" s="29">
-        <f t="shared" ref="E43:L43" si="36">E42+D43</f>
-        <v>21793.35457441966</v>
-      </c>
-      <c r="F43" s="29">
-        <f t="shared" si="36"/>
-        <v>25994.88813416897</v>
-      </c>
-      <c r="G43" s="29">
-        <f t="shared" si="36"/>
-        <v>29226.837026283822</v>
-      </c>
-      <c r="H43" s="29">
-        <f t="shared" si="36"/>
-        <v>31712.951558679866</v>
-      </c>
-      <c r="I43" s="29">
-        <f t="shared" si="36"/>
-        <v>33625.347352830664</v>
-      </c>
-      <c r="J43" s="29">
-        <f t="shared" si="36"/>
-        <v>35096.421040638976</v>
-      </c>
-      <c r="K43" s="29">
-        <f t="shared" si="36"/>
-        <v>36228.016185106906</v>
-      </c>
-      <c r="L43" s="29">
-        <f t="shared" si="36"/>
-        <v>37098.473988543774</v>
+        <v>489.79591836734699</v>
+      </c>
+      <c r="E43" s="27">
+        <f t="shared" ref="E43:L43" si="32">E42+D43</f>
+        <v>635.56851311953358</v>
+      </c>
+      <c r="F43" s="27">
+        <f t="shared" si="32"/>
+        <v>739.69179508538116</v>
+      </c>
+      <c r="G43" s="27">
+        <f t="shared" si="32"/>
+        <v>814.06556791812943</v>
+      </c>
+      <c r="H43" s="27">
+        <f t="shared" si="32"/>
+        <v>867.18969137009253</v>
+      </c>
+      <c r="I43" s="27">
+        <f t="shared" si="32"/>
+        <v>905.13549383578038</v>
+      </c>
+      <c r="J43" s="27">
+        <f t="shared" si="32"/>
+        <v>932.23963845412891</v>
+      </c>
+      <c r="K43" s="27">
+        <f t="shared" si="32"/>
+        <v>951.59974175294929</v>
+      </c>
+      <c r="L43" s="27">
+        <f t="shared" si="32"/>
+        <v>965.4283869663924</v>
       </c>
       <c r="M43" s="59"/>
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="21"/>
       <c r="B44" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="64">
-        <f>C38*50000</f>
-        <v>23076.923076923078</v>
-      </c>
-      <c r="D44" s="64">
-        <f t="shared" ref="D44:L44" si="37">D38*50000</f>
-        <v>17751.479289940824</v>
-      </c>
-      <c r="E44" s="64">
-        <f t="shared" si="37"/>
-        <v>13654.98406918525</v>
-      </c>
-      <c r="F44" s="64">
-        <f t="shared" si="37"/>
-        <v>10503.833899373272</v>
-      </c>
-      <c r="G44" s="64">
-        <f t="shared" si="37"/>
-        <v>8079.8722302871329</v>
-      </c>
-      <c r="H44" s="64">
-        <f t="shared" si="37"/>
-        <v>6215.2863309901104</v>
-      </c>
-      <c r="I44" s="64">
-        <f t="shared" si="37"/>
-        <v>4780.9894853769965</v>
-      </c>
-      <c r="J44" s="64">
-        <f t="shared" si="37"/>
-        <v>3677.6842195207714</v>
-      </c>
-      <c r="K44" s="64">
-        <f t="shared" si="37"/>
-        <v>2828.9878611698182</v>
-      </c>
-      <c r="L44" s="64">
-        <f t="shared" si="37"/>
-        <v>2176.1445085921705</v>
-      </c>
-      <c r="M44" s="22"/>
+        <v>38</v>
+      </c>
+      <c r="C44" s="26">
+        <f>C40*20000</f>
+        <v>5714.2857142857138</v>
+      </c>
+      <c r="D44" s="27">
+        <f t="shared" ref="D44:L44" si="33">D40*20000</f>
+        <v>4081.6326530612246</v>
+      </c>
+      <c r="E44" s="27">
+        <f t="shared" si="33"/>
+        <v>2915.4518950437323</v>
+      </c>
+      <c r="F44" s="27">
+        <f t="shared" si="33"/>
+        <v>2082.4656393169507</v>
+      </c>
+      <c r="G44" s="27">
+        <f t="shared" si="33"/>
+        <v>1487.4754566549652</v>
+      </c>
+      <c r="H44" s="27">
+        <f t="shared" si="33"/>
+        <v>1062.4824690392609</v>
+      </c>
+      <c r="I44" s="27">
+        <f t="shared" si="33"/>
+        <v>758.91604931375809</v>
+      </c>
+      <c r="J44" s="27">
+        <f t="shared" si="33"/>
+        <v>542.08289236697067</v>
+      </c>
+      <c r="K44" s="27">
+        <f t="shared" si="33"/>
+        <v>387.2020659764064</v>
+      </c>
+      <c r="L44" s="27">
+        <f t="shared" si="33"/>
+        <v>276.57290426886141</v>
+      </c>
+      <c r="M44" s="59"/>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="21"/>
       <c r="B45" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="28">
+        <f>C44</f>
+        <v>5714.2857142857138</v>
+      </c>
+      <c r="D45" s="29">
+        <f>D44+C45</f>
+        <v>9795.9183673469379</v>
+      </c>
+      <c r="E45" s="29">
+        <f t="shared" ref="E45:L45" si="34">E44+D45</f>
+        <v>12711.37026239067</v>
+      </c>
+      <c r="F45" s="29">
+        <f t="shared" si="34"/>
+        <v>14793.835901707622</v>
+      </c>
+      <c r="G45" s="29">
+        <f t="shared" si="34"/>
+        <v>16281.311358362587</v>
+      </c>
+      <c r="H45" s="29">
+        <f t="shared" si="34"/>
+        <v>17343.793827401849</v>
+      </c>
+      <c r="I45" s="29">
+        <f t="shared" si="34"/>
+        <v>18102.709876715606</v>
+      </c>
+      <c r="J45" s="29">
+        <f t="shared" si="34"/>
+        <v>18644.792769082578</v>
+      </c>
+      <c r="K45" s="29">
+        <f t="shared" si="34"/>
+        <v>19031.994835058984</v>
+      </c>
+      <c r="L45" s="29">
+        <f t="shared" si="34"/>
+        <v>19308.567739327846</v>
+      </c>
+      <c r="M45" s="59"/>
+    </row>
+    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="21"/>
+      <c r="B46" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="64">
+        <f>C40*50000</f>
+        <v>14285.714285714284</v>
+      </c>
+      <c r="D46" s="64">
+        <f t="shared" ref="D46:L46" si="35">D40*50000</f>
+        <v>10204.081632653062</v>
+      </c>
+      <c r="E46" s="64">
+        <f t="shared" si="35"/>
+        <v>7288.6297376093316</v>
+      </c>
+      <c r="F46" s="64">
+        <f t="shared" si="35"/>
+        <v>5206.1640982923773</v>
+      </c>
+      <c r="G46" s="64">
+        <f t="shared" si="35"/>
+        <v>3718.6886416374132</v>
+      </c>
+      <c r="H46" s="64">
+        <f t="shared" si="35"/>
+        <v>2656.2061725981521</v>
+      </c>
+      <c r="I46" s="64">
+        <f t="shared" si="35"/>
+        <v>1897.2901232843953</v>
+      </c>
+      <c r="J46" s="64">
+        <f t="shared" si="35"/>
+        <v>1355.2072309174268</v>
+      </c>
+      <c r="K46" s="64">
+        <f t="shared" si="35"/>
+        <v>968.00516494101601</v>
+      </c>
+      <c r="L46" s="64">
+        <f t="shared" si="35"/>
+        <v>691.43226067215357</v>
+      </c>
+      <c r="M46" s="22"/>
+    </row>
+    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="21"/>
+      <c r="B47" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="64">
-        <f>C44</f>
-        <v>23076.923076923078</v>
-      </c>
-      <c r="D45" s="64">
-        <f>D44+C45</f>
-        <v>40828.402366863898</v>
-      </c>
-      <c r="E45" s="64">
-        <f t="shared" ref="E45:L45" si="38">E44+D45</f>
-        <v>54483.38643604915</v>
-      </c>
-      <c r="F45" s="64">
-        <f t="shared" si="38"/>
-        <v>64987.220335422418</v>
-      </c>
-      <c r="G45" s="64">
-        <f t="shared" si="38"/>
-        <v>73067.09256570955</v>
-      </c>
-      <c r="H45" s="64">
-        <f t="shared" si="38"/>
-        <v>79282.378896699665</v>
-      </c>
-      <c r="I45" s="64">
-        <f t="shared" si="38"/>
-        <v>84063.36838207666</v>
-      </c>
-      <c r="J45" s="64">
-        <f t="shared" si="38"/>
-        <v>87741.052601597432</v>
-      </c>
-      <c r="K45" s="64">
-        <f t="shared" si="38"/>
-        <v>90570.040462767254</v>
-      </c>
-      <c r="L45" s="64">
-        <f t="shared" si="38"/>
-        <v>92746.184971359427</v>
-      </c>
-      <c r="M45" s="21"/>
-    </row>
-    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="23"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="42"/>
-    </row>
-    <row r="53" spans="7:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="43"/>
-    </row>
-    <row r="54" spans="7:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J54" s="41"/>
-      <c r="K54" s="41"/>
-      <c r="L54" s="43"/>
-    </row>
-    <row r="56" spans="7:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
+      <c r="C47" s="64">
+        <f>C46</f>
+        <v>14285.714285714284</v>
+      </c>
+      <c r="D47" s="64">
+        <f>D46+C47</f>
+        <v>24489.795918367345</v>
+      </c>
+      <c r="E47" s="64">
+        <f t="shared" ref="E47:L47" si="36">E46+D47</f>
+        <v>31778.425655976676</v>
+      </c>
+      <c r="F47" s="64">
+        <f t="shared" si="36"/>
+        <v>36984.589754269051</v>
+      </c>
+      <c r="G47" s="64">
+        <f t="shared" si="36"/>
+        <v>40703.278395906462</v>
+      </c>
+      <c r="H47" s="64">
+        <f t="shared" si="36"/>
+        <v>43359.484568504617</v>
+      </c>
+      <c r="I47" s="64">
+        <f t="shared" si="36"/>
+        <v>45256.774691789011</v>
+      </c>
+      <c r="J47" s="64">
+        <f t="shared" si="36"/>
+        <v>46611.981922706436</v>
+      </c>
+      <c r="K47" s="64">
+        <f t="shared" si="36"/>
+        <v>47579.987087647452</v>
+      </c>
+      <c r="L47" s="64">
+        <f t="shared" si="36"/>
+        <v>48271.419348319607</v>
+      </c>
+      <c r="M47" s="21"/>
+    </row>
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="23"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+    </row>
+    <row r="55" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="43"/>
+    </row>
+    <row r="56" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J56" s="41"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="43"/>
+    </row>
+    <row r="58" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="E2:L5"/>
+    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <conditionalFormatting sqref="C8">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
@@ -2812,7 +2908,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C16 L44 C40:L40 C42:L42 C44:K44" formula="1"/>
+    <ignoredError sqref="C17 L46 C42:L42 C44:L44 C46:K46" formula="1"/>
     <ignoredError sqref="C8" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
@@ -2850,25 +2946,25 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="82"/>
+      <c r="M1" s="79"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="21"/>
       <c r="B2" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="44"/>
-      <c r="E2" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
+      <c r="E2" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
       <c r="M2" s="21"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2880,14 +2976,14 @@
         <v>100000</v>
       </c>
       <c r="D3" s="44"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
       <c r="M3" s="21"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2907,36 +3003,36 @@
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="21"/>
-      <c r="B5" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
+      <c r="B5" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="77"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
       <c r="M5" s="21"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="21"/>
-      <c r="B6" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
+      <c r="B6" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="74"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
       <c r="M6" s="21"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2956,7 +3052,7 @@
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="21"/>
       <c r="B8" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>11</v>
@@ -3133,11 +3229,11 @@
         <f t="shared" si="2"/>
         <v>0.66510202331961599</v>
       </c>
-      <c r="I12" s="76">
+      <c r="I12" s="73">
         <f t="shared" si="2"/>
         <v>0.72091835276634664</v>
       </c>
-      <c r="J12" s="76">
+      <c r="J12" s="73">
         <f t="shared" si="2"/>
         <v>0.76743196063862218</v>
       </c>
@@ -3180,11 +3276,11 @@
         <f t="shared" si="3"/>
         <v>0.33489797668038401</v>
       </c>
-      <c r="I13" s="76">
+      <c r="I13" s="73">
         <f t="shared" si="3"/>
         <v>0.27908164723365336</v>
       </c>
-      <c r="J13" s="76">
+      <c r="J13" s="73">
         <f t="shared" si="3"/>
         <v>0.23256803936137782</v>
       </c>
@@ -3406,11 +3502,11 @@
         <f t="shared" si="7"/>
         <v>0.67232000000000003</v>
       </c>
-      <c r="H19" s="76">
+      <c r="H19" s="73">
         <f t="shared" si="7"/>
         <v>0.73785599999999996</v>
       </c>
-      <c r="I19" s="76">
+      <c r="I19" s="73">
         <f t="shared" si="7"/>
         <v>0.79028480000000001</v>
       </c>
@@ -3453,11 +3549,11 @@
         <f t="shared" si="8"/>
         <v>0.32767999999999997</v>
       </c>
-      <c r="H20" s="76">
+      <c r="H20" s="73">
         <f t="shared" si="8"/>
         <v>0.26214400000000004</v>
       </c>
-      <c r="I20" s="76">
+      <c r="I20" s="73">
         <f t="shared" si="8"/>
         <v>0.20971519999999999</v>
       </c>
@@ -3679,11 +3775,11 @@
         <f t="shared" si="18"/>
         <v>0.64987220335422424</v>
       </c>
-      <c r="G26" s="76">
+      <c r="G26" s="73">
         <f t="shared" si="18"/>
         <v>0.73067092565709557</v>
       </c>
-      <c r="H26" s="76">
+      <c r="H26" s="73">
         <f t="shared" si="18"/>
         <v>0.79282378896699668</v>
       </c>
@@ -3726,11 +3822,11 @@
         <f t="shared" si="19"/>
         <v>0.35012779664577576</v>
       </c>
-      <c r="G27" s="76">
+      <c r="G27" s="73">
         <f t="shared" si="19"/>
         <v>0.26932907434290443</v>
       </c>
-      <c r="H27" s="76">
+      <c r="H27" s="73">
         <f t="shared" si="19"/>
         <v>0.20717621103300332</v>
       </c>
@@ -3952,11 +4048,11 @@
         <f t="shared" ref="E33:L33" si="29">( ( E31 - $C$3 ) ) / E31</f>
         <v>0.59355789259767311</v>
       </c>
-      <c r="F33" s="76">
+      <c r="F33" s="73">
         <f t="shared" si="29"/>
         <v>0.69893177229457271</v>
       </c>
-      <c r="G33" s="76">
+      <c r="G33" s="73">
         <f t="shared" si="29"/>
         <v>0.77698649799597974</v>
       </c>
@@ -3999,11 +4095,11 @@
         <f t="shared" si="30"/>
         <v>0.40644210740232689</v>
       </c>
-      <c r="F34" s="76">
+      <c r="F34" s="73">
         <f t="shared" si="30"/>
         <v>0.30106822770542729</v>
       </c>
-      <c r="G34" s="76">
+      <c r="G34" s="73">
         <f t="shared" si="30"/>
         <v>0.22301350200402026</v>
       </c>
@@ -4229,11 +4325,11 @@
         <f t="shared" ref="E40:L40" si="40">( ( E38 - $C$3 ) ) / E38</f>
         <v>0.63556851311953355</v>
       </c>
-      <c r="F40" s="76">
+      <c r="F40" s="73">
         <f t="shared" si="40"/>
         <v>0.73969179508538108</v>
       </c>
-      <c r="G40" s="76">
+      <c r="G40" s="73">
         <f t="shared" si="40"/>
         <v>0.81406556791812934</v>
       </c>
@@ -4276,11 +4372,11 @@
         <f t="shared" si="41"/>
         <v>0.36443148688046645</v>
       </c>
-      <c r="F41" s="76">
+      <c r="F41" s="73">
         <f t="shared" si="41"/>
         <v>0.26030820491461892</v>
       </c>
-      <c r="G41" s="76">
+      <c r="G41" s="73">
         <f t="shared" si="41"/>
         <v>0.18593443208187066</v>
       </c>
@@ -4358,7 +4454,7 @@
       <c r="B43" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="83"/>
+      <c r="C43" s="80"/>
       <c r="D43" s="49"/>
       <c r="E43" s="49"/>
       <c r="F43" s="49"/>
